--- a/ExcelData/outputdata4.xlsx
+++ b/ExcelData/outputdata4.xlsx
@@ -14,12 +14,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Reliance</t>
-  </si>
-  <si>
-    <t>₹1,514</t>
-  </si>
-  <si>
     <t>Bajaj Allianz</t>
   </si>
   <si>
@@ -30,6 +24,12 @@
   </si>
   <si>
     <t>₹2,089</t>
+  </si>
+  <si>
+    <t>Care Health</t>
+  </si>
+  <si>
+    <t>₹2,156</t>
   </si>
 </sst>
 </file>
